--- a/RailsClient/uploadfiles/template/移库数据模板.xlsx
+++ b/RailsClient/uploadfiles/template/移库数据模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>源仓库</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>唯一码</t>
-  </si>
-  <si>
-    <t>包装号</t>
   </si>
   <si>
     <t>零件号</t>
@@ -152,20 +149,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
+      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.1411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3176470588235"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="10.8823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="1" width="10.8823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.8823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -184,10 +181,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -198,9 +195,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -226,7 +220,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8823529411765"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -251,7 +245,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8823529411765"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/RailsClient/uploadfiles/template/移库数据模板.xlsx
+++ b/RailsClient/uploadfiles/template/移库数据模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>源仓库</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>零件号</t>
-  </si>
-  <si>
-    <t>数量</t>
   </si>
   <si>
     <t>FIFO</t>
@@ -149,20 +146,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
+      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="10.8823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3843137254902"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="1" width="10.8823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.8823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.4509803921569"/>
+    <col collapsed="false" hidden="false" max="1022" min="7" style="1" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="10.9411764705882"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -178,10 +175,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -192,9 +189,6 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -220,7 +214,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9411764705882"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -245,7 +239,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9411764705882"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/RailsClient/uploadfiles/template/移库数据模板.xlsx
+++ b/RailsClient/uploadfiles/template/移库数据模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>源仓库</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>零件号</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
   <si>
     <t>FIFO</t>
@@ -146,20 +149,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
+      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="10.9411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.4509803921569"/>
-    <col collapsed="false" hidden="false" max="1022" min="7" style="1" width="10.9411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="11"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.5294117647059"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="1" width="11"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -175,10 +178,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -189,6 +192,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -214,7 +220,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -239,7 +245,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/RailsClient/uploadfiles/template/移库数据模板.xlsx
+++ b/RailsClient/uploadfiles/template/移库数据模板.xlsx
@@ -25,10 +25,10 @@
     <t>源库位</t>
   </si>
   <si>
-    <t>唯一码</t>
-  </si>
-  <si>
     <t>零件号</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
   <si>
     <t>FIFO</t>
@@ -149,17 +149,16 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
+      <selection activeCell="E12" activeCellId="0" pane="topLeft" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="10.9411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.4509803921569"/>
-    <col collapsed="false" hidden="false" max="1022" min="7" style="1" width="10.9411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="11"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.5294117647059"/>
+    <col collapsed="false" hidden="false" max="1022" min="7" style="1" width="11"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="11"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -214,7 +213,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -239,7 +238,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
